--- a/xlsx/秘魯_intext.xlsx
+++ b/xlsx/秘魯_intext.xlsx
@@ -29,7 +29,7 @@
     <t>西班牙語</t>
   </si>
   <si>
-    <t>政策_政策_美國_秘魯</t>
+    <t>体育运动_体育运动_1980年夏季奥林匹克运动会_秘魯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E6%A5%9A%E7%93%A6%E8%AA%9E</t>
